--- a/Bank/中医内科学/胃/Bank_便秘.xlsx
+++ b/Bank/中医内科学/胃/Bank_便秘.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliot/Desktop/wall/Bank/中医内科学/胃/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="129">
   <si>
     <t>便秘的病位在</t>
   </si>
@@ -400,12 +411,18 @@
   </si>
   <si>
     <t>诊断：便秘。辨证：虚秘，气虚。分析：因患者主诉为排便困难，有时解不出，故诊断为便秘。排便困难，而大便并不干硬，平素身体较弱，舌淡苔白，脉缓无力，均属气虚。气虚则大肠传导功能失常，肠道推动无力，故大便虽不干硬，仍排便困难，有时解不出；因排便困难并非由痔疮引起，故行痔疮手术后，排便困难仍未解除；脾气虚，脾不统血，故手术已过2周，手术部位仍在出血；对此气虚之体，本应益气，却反用大黄、芒硝攻下祛邪，徒伤正气，故病情未好转，幸未加重病情；劳则耗气，故平素不耐劳累；中气不足，清阳不升，脑失所养，故平素头昏，有两次曾昏倒在地；中气不足，清阳不升，颜面失养，故面白不华；舌淡苔白，脉缓无力，均为脾虚气弱之象。治法：补气润肠，健脾升阳。方药：黄芪汤。黄芪30g火麻仁10g白蜜1匙陈皮10g党参10g白术10g升麻5g炒蒲黄10g旱莲草10g甘草5g</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -720,12 +737,12 @@
   <dimension ref="B1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -741,6 +758,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1">
+        <v>44</v>
+      </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
@@ -751,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -767,6 +787,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2">
+        <v>44</v>
+      </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
@@ -777,7 +800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -793,6 +816,9 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
@@ -803,7 +829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -819,6 +845,9 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
+      <c r="G4">
+        <v>44</v>
+      </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
@@ -829,7 +858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -845,6 +874,9 @@
       <c r="F5" t="s">
         <v>28</v>
       </c>
+      <c r="G5">
+        <v>44</v>
+      </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
@@ -855,7 +887,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -871,6 +903,9 @@
       <c r="F6" t="s">
         <v>28</v>
       </c>
+      <c r="G6">
+        <v>44</v>
+      </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
@@ -881,7 +916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -897,6 +932,9 @@
       <c r="F7" t="s">
         <v>37</v>
       </c>
+      <c r="G7">
+        <v>44</v>
+      </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -907,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -923,6 +961,9 @@
       <c r="F8" t="s">
         <v>42</v>
       </c>
+      <c r="G8">
+        <v>44</v>
+      </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
@@ -933,7 +974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>44</v>
       </c>
@@ -949,6 +990,9 @@
       <c r="F9" t="s">
         <v>48</v>
       </c>
+      <c r="G9">
+        <v>44</v>
+      </c>
       <c r="H9" t="s">
         <v>5</v>
       </c>
@@ -959,7 +1003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>49</v>
       </c>
@@ -975,6 +1019,9 @@
       <c r="F10" t="s">
         <v>53</v>
       </c>
+      <c r="G10">
+        <v>44</v>
+      </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
@@ -985,7 +1032,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -1001,6 +1048,9 @@
       <c r="F11" t="s">
         <v>58</v>
       </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
       <c r="H11" t="s">
         <v>5</v>
       </c>
@@ -1011,7 +1061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>59</v>
       </c>
@@ -1027,6 +1077,9 @@
       <c r="F12" t="s">
         <v>63</v>
       </c>
+      <c r="G12">
+        <v>44</v>
+      </c>
       <c r="H12" t="s">
         <v>5</v>
       </c>
@@ -1037,7 +1090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>64</v>
       </c>
@@ -1053,6 +1106,9 @@
       <c r="F13" t="s">
         <v>68</v>
       </c>
+      <c r="G13">
+        <v>44</v>
+      </c>
       <c r="H13" t="s">
         <v>113</v>
       </c>
@@ -1066,7 +1122,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>71</v>
       </c>
@@ -1082,6 +1138,9 @@
       <c r="F14" t="s">
         <v>4</v>
       </c>
+      <c r="G14">
+        <v>44</v>
+      </c>
       <c r="H14" t="s">
         <v>113</v>
       </c>
@@ -1095,7 +1154,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>75</v>
       </c>
@@ -1111,6 +1170,9 @@
       <c r="F15" t="s">
         <v>79</v>
       </c>
+      <c r="G15">
+        <v>44</v>
+      </c>
       <c r="H15" t="s">
         <v>113</v>
       </c>
@@ -1124,7 +1186,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>82</v>
       </c>
@@ -1140,6 +1202,9 @@
       <c r="F16" t="s">
         <v>86</v>
       </c>
+      <c r="G16">
+        <v>44</v>
+      </c>
       <c r="H16" t="s">
         <v>113</v>
       </c>
@@ -1153,7 +1218,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>88</v>
       </c>
@@ -1169,6 +1234,9 @@
       <c r="F17" t="s">
         <v>91</v>
       </c>
+      <c r="G17">
+        <v>44</v>
+      </c>
       <c r="H17" t="s">
         <v>113</v>
       </c>
@@ -1182,7 +1250,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>93</v>
       </c>
@@ -1198,6 +1266,9 @@
       <c r="F18" t="s">
         <v>97</v>
       </c>
+      <c r="G18">
+        <v>44</v>
+      </c>
       <c r="H18" t="s">
         <v>113</v>
       </c>
@@ -1211,7 +1282,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -1227,6 +1298,9 @@
       <c r="F19" t="s">
         <v>104</v>
       </c>
+      <c r="G19">
+        <v>44</v>
+      </c>
       <c r="H19" t="s">
         <v>113</v>
       </c>
@@ -1240,7 +1314,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>106</v>
       </c>
@@ -1256,6 +1330,9 @@
       <c r="F20" t="s">
         <v>110</v>
       </c>
+      <c r="G20">
+        <v>44</v>
+      </c>
       <c r="H20" t="s">
         <v>113</v>
       </c>
@@ -1269,12 +1346,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>111</v>
       </c>
+      <c r="G21">
+        <v>44</v>
+      </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1283,10 +1363,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>114</v>
       </c>
+      <c r="G22">
+        <v>44</v>
+      </c>
       <c r="H22" t="s">
         <v>118</v>
       </c>
@@ -1297,10 +1380,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>115</v>
       </c>
+      <c r="G23">
+        <v>44</v>
+      </c>
       <c r="H23" t="s">
         <v>118</v>
       </c>
@@ -1311,10 +1397,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>116</v>
       </c>
+      <c r="G24">
+        <v>44</v>
+      </c>
       <c r="H24" t="s">
         <v>118</v>
       </c>
@@ -1325,10 +1414,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>117</v>
       </c>
+      <c r="G25">
+        <v>44</v>
+      </c>
       <c r="H25" t="s">
         <v>118</v>
       </c>
@@ -1339,12 +1431,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>119</v>
       </c>
+      <c r="G26">
+        <v>44</v>
+      </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J26">
         <v>1</v>
